--- a/doc/RayTrac Performance Results.xlsx
+++ b/doc/RayTrac Performance Results.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="28395" windowHeight="15180"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Producto Punto" sheetId="2" r:id="rId2"/>
+    <sheet name="Producto Cruz" sheetId="4" r:id="rId3"/>
+    <sheet name="Suma" sheetId="5" r:id="rId4"/>
+    <sheet name="Producto Simple" sheetId="6" r:id="rId5"/>
+    <sheet name="Normal" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$261</definedName>
     <definedName name="PerformanceTest" localSheetId="0">Hoja1!$B$1:$F$261</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="147">
   <si>
     <t>Terminal log file</t>
   </si>
@@ -440,17 +443,50 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución</t>
+  </si>
+  <si>
+    <t>Tiempo de Sobrecarga</t>
+  </si>
+  <si>
+    <t>Operación</t>
+  </si>
+  <si>
+    <t>Número de Iteraciones</t>
+  </si>
+  <si>
+    <t>Hardware (RayTrac)</t>
+  </si>
+  <si>
+    <t>Software (Nios II)</t>
+  </si>
+  <si>
+    <t>Dot Product</t>
+  </si>
+  <si>
+    <t>Producto Cruz</t>
+  </si>
+  <si>
+    <t>Suma Vectorial</t>
+  </si>
+  <si>
+    <t>Producto Simple</t>
+  </si>
+  <si>
+    <t>Normalizacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -482,17 +518,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -506,6 +851,1616 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Punto'!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware (RayTrac)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103.41500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$E$1:$E$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$G$1:$G$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Punto'!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Software (Nios II)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6286437284209795E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.519637248220722E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15119885356305593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:bubbleScale val="100"/>
+        <c:axId val="40865152"/>
+        <c:axId val="40845312"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="40865152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40845312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40845312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="40865152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4F81BD"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Cruz'!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware (RayTrac)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.100799999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660.7940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2697488590801329E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5138146489099967E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4394006527223089E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$E$1:$E$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$G$1:$G$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Cruz'!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Software (Nios II)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2896.4072000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29266.753199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255011.19380000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Cruz'!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6952288874081294E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7129444183567943E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14925468433519737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:bubbleScale val="100"/>
+        <c:axId val="142640640"/>
+        <c:axId val="144068608"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="142640640"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144068608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144068608"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="142640640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4F81BD"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Suma!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware (RayTrac)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Suma!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Suma!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103.6482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6466.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Suma!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2019456734503747E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5446158751122912E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4984622151323538E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$E$1:$E$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$G$1:$G$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Suma!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Software (Nios II)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Suma!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Suma!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1137.5804000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10778.499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107008.35619999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Suma!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6070726846444876E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5226907323972813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15117191389525308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:bubbleScale val="100"/>
+        <c:axId val="149575552"/>
+        <c:axId val="153304064"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="149575552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153304064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="153304064"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="149575552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="4F81BD"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Simple'!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware (RayTrac)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Simple'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Simple'!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>102.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Simple'!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8821718344318632E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1366628786607135E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.08747343339548E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$E$1:$E$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$G$1:$G$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Producto Simple'!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Software (Nios II)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Producto Simple'!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Simple'!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2939.9638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29150.494599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>291959.02500000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Simple'!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5236153849626153E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5107037049854027E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15130569371931887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:bubbleScale val="100"/>
+        <c:axId val="166867712"/>
+        <c:axId val="166869632"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="166867712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166869632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166869632"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="166867712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4F81BD"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware (RayTrac)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.843600000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6485.9375999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Normal!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0642094619853234E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6597142555569013E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6401500911191478E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$E$1:$E$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1153.1907999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10760.067800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107059.09699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Producto Punto'!$G$1:$G$20</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Producto Punto'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1.1833713078061393E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4127344504841357E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3726841717303634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Software (Nios II)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>183.78479999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1431.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14120.522400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Normal!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9657364716902962E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.530791468218891E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15103112923919607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:bubbleScale val="100"/>
+        <c:axId val="114787072"/>
+        <c:axId val="114788992"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="114787072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114788992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114788992"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="114787072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4F81BD"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="17 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96932</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277907</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96932</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96932</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +2542,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -622,7 +2576,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,15 +2751,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -817,78 +2770,78 @@
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -897,490 +2850,490 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" hidden="1">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" hidden="1">
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" hidden="1">
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" hidden="1">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" hidden="1">
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" hidden="1">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" hidden="1">
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" hidden="1">
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" hidden="1">
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" hidden="1">
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" hidden="1">
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" hidden="1">
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" hidden="1">
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" hidden="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30"/>
     </row>
-    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" hidden="1">
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" hidden="1">
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" hidden="1">
       <c r="B33" t="s">
         <v>28</v>
       </c>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" hidden="1">
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1">
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1">
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1">
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1">
       <c r="B38" t="s">
         <v>33</v>
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1">
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1">
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1">
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1">
       <c r="B42" t="s">
         <v>37</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1">
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43"/>
     </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1">
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1">
       <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1">
       <c r="B46" t="s">
         <v>41</v>
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1">
       <c r="B47" t="s">
         <v>42</v>
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1">
       <c r="B48" t="s">
         <v>43</v>
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" hidden="1">
       <c r="B49" t="s">
         <v>44</v>
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" hidden="1">
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50"/>
     </row>
-    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" hidden="1">
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" hidden="1">
       <c r="B52" t="s">
         <v>47</v>
       </c>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" hidden="1">
       <c r="B53" t="s">
         <v>48</v>
       </c>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" hidden="1">
       <c r="B54" t="s">
         <v>49</v>
       </c>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" hidden="1">
       <c r="B55" t="s">
         <v>50</v>
       </c>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" hidden="1">
       <c r="B56" t="s">
         <v>51</v>
       </c>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" hidden="1">
       <c r="B57" t="s">
         <v>52</v>
       </c>
       <c r="C57"/>
     </row>
-    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" hidden="1">
       <c r="B58" t="s">
         <v>53</v>
       </c>
       <c r="C58"/>
     </row>
-    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" hidden="1">
       <c r="B59" t="s">
         <v>54</v>
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" hidden="1">
       <c r="B60" t="s">
         <v>55</v>
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" hidden="1">
       <c r="B61" t="s">
         <v>56</v>
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" hidden="1">
       <c r="B62" t="s">
         <v>57</v>
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" hidden="1">
       <c r="B63" t="s">
         <v>58</v>
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" hidden="1">
       <c r="B64" t="s">
         <v>59</v>
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" hidden="1">
       <c r="B65" t="s">
         <v>60</v>
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" hidden="1">
       <c r="B66" t="s">
         <v>61</v>
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" hidden="1">
       <c r="B67" t="s">
         <v>62</v>
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" hidden="1">
       <c r="B68" t="s">
         <v>63</v>
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" hidden="1">
       <c r="B69" t="s">
         <v>64</v>
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" hidden="1">
       <c r="B70" t="s">
         <v>65</v>
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" hidden="1">
       <c r="B71" t="s">
         <v>66</v>
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" hidden="1">
       <c r="B72" t="s">
         <v>67</v>
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" hidden="1">
       <c r="B73" t="s">
         <v>68</v>
       </c>
       <c r="C73"/>
     </row>
-    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" hidden="1">
       <c r="B74" t="s">
         <v>69</v>
       </c>
       <c r="C74"/>
     </row>
-    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" hidden="1">
       <c r="B75" t="s">
         <v>70</v>
       </c>
       <c r="C75"/>
     </row>
-    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" hidden="1">
       <c r="B76" t="s">
         <v>71</v>
       </c>
       <c r="C76"/>
     </row>
-    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" hidden="1">
       <c r="B77" t="s">
         <v>72</v>
       </c>
       <c r="C77"/>
     </row>
-    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" hidden="1">
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78"/>
     </row>
-    <row r="79" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" hidden="1">
       <c r="B79" t="s">
         <v>74</v>
       </c>
       <c r="C79"/>
     </row>
-    <row r="80" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" hidden="1">
       <c r="B80" t="s">
         <v>75</v>
       </c>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1">
       <c r="B81" t="s">
         <v>76</v>
       </c>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1">
       <c r="B82" t="s">
         <v>77</v>
       </c>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1">
       <c r="B83" t="s">
         <v>78</v>
       </c>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1">
       <c r="B84" t="s">
         <v>79</v>
       </c>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1">
       <c r="B85" t="s">
         <v>80</v>
       </c>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1">
       <c r="B86" t="s">
         <v>81</v>
       </c>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1">
       <c r="B87" t="s">
         <v>82</v>
       </c>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1">
       <c r="B88" t="s">
         <v>83</v>
       </c>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1">
       <c r="B89" t="s">
         <v>84</v>
       </c>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1">
       <c r="B90" t="s">
         <v>85</v>
       </c>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1">
       <c r="B91" t="s">
         <v>86</v>
       </c>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1">
       <c r="B92" t="s">
         <v>87</v>
       </c>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1">
       <c r="B93" t="s">
         <v>88</v>
       </c>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1">
       <c r="B94" t="s">
         <v>89</v>
       </c>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1">
       <c r="B95" t="s">
         <v>90</v>
       </c>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -1400,13 +3353,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1">
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -1423,15 +3376,15 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <f>C98/1000</f>
-        <v>104.19499999999999</v>
+        <f t="shared" ref="F98:F129" si="0">C98/1000</f>
+        <v>104</v>
       </c>
       <c r="G98">
-        <f>D98/1000</f>
-        <v>7567.5010000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G98:G129" si="1">D98/1000</f>
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -1448,15 +3401,15 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <f>C99/1000</f>
+        <f t="shared" si="0"/>
         <v>105.143</v>
       </c>
       <c r="G99">
-        <f>D99/1000</f>
-        <v>2096.0749999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -1473,15 +3426,15 @@
         <v>10</v>
       </c>
       <c r="F100">
-        <f>C100/1000</f>
+        <f t="shared" si="0"/>
         <v>101.91</v>
       </c>
       <c r="G100">
-        <f>D100/1000</f>
-        <v>5373.5780000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -1498,15 +3451,15 @@
         <v>10</v>
       </c>
       <c r="F101">
-        <f>C101/1000</f>
+        <f t="shared" si="0"/>
         <v>104.045</v>
       </c>
       <c r="G101">
-        <f>D101/1000</f>
+        <f t="shared" si="1"/>
         <v>2084.15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -1523,15 +3476,15 @@
         <v>10</v>
       </c>
       <c r="F102">
-        <f>C102/1000</f>
+        <f t="shared" si="0"/>
         <v>103.143</v>
       </c>
       <c r="G102">
-        <f>D102/1000</f>
-        <v>7016.0730000000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -1548,15 +3501,15 @@
         <v>100</v>
       </c>
       <c r="F103">
-        <f>C103/1000</f>
-        <v>658.66099999999994</v>
+        <f t="shared" si="0"/>
+        <v>658</v>
       </c>
       <c r="G103">
-        <f>D103/1000</f>
-        <v>2368.0439999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -1573,15 +3526,15 @@
         <v>100</v>
       </c>
       <c r="F104">
-        <f>C104/1000</f>
-        <v>613.75900000000001</v>
+        <f t="shared" si="0"/>
+        <v>613</v>
       </c>
       <c r="G104">
-        <f>D104/1000</f>
-        <v>2702.0140000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -1598,15 +3551,15 @@
         <v>100</v>
       </c>
       <c r="F105">
-        <f>C105/1000</f>
-        <v>661.12800000000004</v>
+        <f t="shared" si="0"/>
+        <v>661</v>
       </c>
       <c r="G105">
-        <f>D105/1000</f>
-        <v>8268.4940000000006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -1623,15 +3576,15 @@
         <v>100</v>
       </c>
       <c r="F106">
-        <f>C106/1000</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="G106">
-        <f>D106/1000</f>
-        <v>2687.3380000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -1648,15 +3601,15 @@
         <v>100</v>
       </c>
       <c r="F107">
-        <f>C107/1000</f>
-        <v>661.14300000000003</v>
+        <f t="shared" si="0"/>
+        <v>661</v>
       </c>
       <c r="G107">
-        <f>D107/1000</f>
-        <v>11496.147000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -1673,15 +3626,15 @@
         <v>1000</v>
       </c>
       <c r="F108">
-        <f>C108/1000</f>
-        <v>6466.3440000000001</v>
+        <f t="shared" si="0"/>
+        <v>6466</v>
       </c>
       <c r="G108">
-        <f>D108/1000</f>
-        <v>9913.6659999999993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9913</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -1698,15 +3651,15 @@
         <v>1000</v>
       </c>
       <c r="F109">
-        <f>C109/1000</f>
-        <v>6462.4949999999999</v>
+        <f t="shared" si="0"/>
+        <v>6462</v>
       </c>
       <c r="G109">
-        <f>D109/1000</f>
-        <v>10682.869000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>10682</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -1723,15 +3676,15 @@
         <v>1000</v>
       </c>
       <c r="F110">
-        <f>C110/1000</f>
-        <v>6465.3819999999996</v>
+        <f t="shared" si="0"/>
+        <v>6465</v>
       </c>
       <c r="G110">
-        <f>D110/1000</f>
-        <v>14988.085999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -1748,15 +3701,15 @@
         <v>1000</v>
       </c>
       <c r="F111">
-        <f>C111/1000</f>
-        <v>6475.7719999999999</v>
+        <f t="shared" si="0"/>
+        <v>6475</v>
       </c>
       <c r="G111">
-        <f>D111/1000</f>
+        <f t="shared" si="1"/>
         <v>15221.56</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -1773,15 +3726,15 @@
         <v>1000</v>
       </c>
       <c r="F112">
-        <f>C112/1000</f>
-        <v>6463.2759999999998</v>
+        <f t="shared" si="0"/>
+        <v>6463</v>
       </c>
       <c r="G112">
-        <f>D112/1000</f>
+        <f t="shared" si="1"/>
         <v>10713.125</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -1798,15 +3751,15 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <f>C113/1000</f>
+        <f t="shared" si="0"/>
         <v>105.429</v>
       </c>
       <c r="G113">
-        <f>D113/1000</f>
+        <f t="shared" si="1"/>
         <v>1520.135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -1823,15 +3776,15 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <f>C114/1000</f>
-        <v>92.841999999999999</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G114">
-        <f>D114/1000</f>
+        <f t="shared" si="1"/>
         <v>2011.578</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -1848,15 +3801,15 @@
         <v>10</v>
       </c>
       <c r="F115">
-        <f>C115/1000</f>
+        <f t="shared" si="0"/>
         <v>102.947</v>
       </c>
       <c r="G115">
-        <f>D115/1000</f>
-        <v>8303.1859999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -1873,15 +3826,15 @@
         <v>10</v>
       </c>
       <c r="F116">
-        <f>C116/1000</f>
+        <f t="shared" si="0"/>
         <v>93.128</v>
       </c>
       <c r="G116">
-        <f>D116/1000</f>
-        <v>2075.5479999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -1898,18 +3851,18 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <f>C117/1000</f>
-        <v>102.48099999999999</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="G117">
-        <f>D117/1000</f>
+        <f t="shared" si="1"/>
         <v>10148.087</v>
       </c>
       <c r="K117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -1926,15 +3879,15 @@
         <v>100</v>
       </c>
       <c r="F118">
-        <f>C118/1000</f>
+        <f t="shared" si="0"/>
         <v>653.97</v>
       </c>
       <c r="G118">
-        <f>D118/1000</f>
+        <f t="shared" si="1"/>
         <v>2368.48</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>111</v>
       </c>
@@ -1951,15 +3904,15 @@
         <v>100</v>
       </c>
       <c r="F119">
-        <f>C119/1000</f>
-        <v>663.50400000000002</v>
+        <f t="shared" si="0"/>
+        <v>663</v>
       </c>
       <c r="G119">
-        <f>D119/1000</f>
-        <v>2943.5929999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>111</v>
       </c>
@@ -1976,15 +3929,15 @@
         <v>100</v>
       </c>
       <c r="F120">
-        <f>C120/1000</f>
-        <v>659.63900000000001</v>
+        <f t="shared" si="0"/>
+        <v>659</v>
       </c>
       <c r="G120">
-        <f>D120/1000</f>
-        <v>5226.6000000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -2001,15 +3954,15 @@
         <v>100</v>
       </c>
       <c r="F121">
-        <f>C121/1000</f>
-        <v>665.98500000000001</v>
+        <f t="shared" si="0"/>
+        <v>665</v>
       </c>
       <c r="G121">
-        <f>D121/1000</f>
-        <v>3583.7730000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -2026,15 +3979,15 @@
         <v>100</v>
       </c>
       <c r="F122">
-        <f>C122/1000</f>
-        <v>663.24800000000005</v>
+        <f t="shared" si="0"/>
+        <v>663</v>
       </c>
       <c r="G122">
-        <f>D122/1000</f>
-        <v>11602.869000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>11602</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>101</v>
       </c>
@@ -2051,15 +4004,15 @@
         <v>1000</v>
       </c>
       <c r="F123">
-        <f>C123/1000</f>
-        <v>6471.9530000000004</v>
+        <f t="shared" si="0"/>
+        <v>6471</v>
       </c>
       <c r="G123">
-        <f>D123/1000</f>
-        <v>19238.326000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>19238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>101</v>
       </c>
@@ -2076,15 +4029,15 @@
         <v>1000</v>
       </c>
       <c r="F124">
-        <f>C124/1000</f>
-        <v>6471.3360000000002</v>
+        <f t="shared" si="0"/>
+        <v>6471</v>
       </c>
       <c r="G124">
-        <f>D124/1000</f>
+        <f t="shared" si="1"/>
         <v>12716.839</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>101</v>
       </c>
@@ -2101,15 +4054,15 @@
         <v>1000</v>
       </c>
       <c r="F125">
-        <f>C125/1000</f>
-        <v>6483.4269999999997</v>
+        <f t="shared" si="0"/>
+        <v>6483</v>
       </c>
       <c r="G125">
-        <f>D125/1000</f>
-        <v>19816.460999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>19816</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>101</v>
       </c>
@@ -2126,15 +4079,15 @@
         <v>1000</v>
       </c>
       <c r="F126">
-        <f>C126/1000</f>
-        <v>6455.1109999999999</v>
+        <f t="shared" si="0"/>
+        <v>6455</v>
       </c>
       <c r="G126">
-        <f>D126/1000</f>
+        <f t="shared" si="1"/>
         <v>10683.591</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>101</v>
       </c>
@@ -2151,40 +4104,40 @@
         <v>1000</v>
       </c>
       <c r="F127">
-        <f>C127/1000</f>
-        <v>6460.0730000000003</v>
+        <f t="shared" si="0"/>
+        <v>6460</v>
       </c>
       <c r="G127">
-        <f>D127/1000</f>
-        <v>15417.244000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>15417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1">
       <c r="C128"/>
       <c r="F128">
-        <f>C128/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f>D128/1000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1">
       <c r="B129" t="s">
         <v>128</v>
       </c>
       <c r="C129"/>
       <c r="F129">
-        <f>C129/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f>D129/1000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -2201,15 +4154,15 @@
         <v>10</v>
       </c>
       <c r="F130">
-        <f>C130/1000</f>
+        <f t="shared" ref="F130:F161" si="2">C130/1000</f>
         <v>104.496</v>
       </c>
       <c r="G130">
-        <f>D130/1000</f>
-        <v>9857.6820000000007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G130:G161" si="3">D130/1000</f>
+        <v>9857</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -2226,15 +4179,15 @@
         <v>10</v>
       </c>
       <c r="F131">
-        <f>C131/1000</f>
-        <v>97.278000000000006</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="G131">
-        <f>D131/1000</f>
+        <f t="shared" si="3"/>
         <v>2063.308</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -2251,15 +4204,15 @@
         <v>10</v>
       </c>
       <c r="F132">
-        <f>C132/1000</f>
+        <f t="shared" si="2"/>
         <v>105.158</v>
       </c>
       <c r="G132">
-        <f>D132/1000</f>
-        <v>6980.1040000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -2276,15 +4229,15 @@
         <v>10</v>
       </c>
       <c r="F133">
-        <f>C133/1000</f>
+        <f t="shared" si="2"/>
         <v>105.459</v>
       </c>
       <c r="G133">
-        <f>D133/1000</f>
+        <f t="shared" si="3"/>
         <v>2216.09</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -2301,15 +4254,15 @@
         <v>10</v>
       </c>
       <c r="F134">
-        <f>C134/1000</f>
+        <f t="shared" si="2"/>
         <v>104.962</v>
       </c>
       <c r="G134">
-        <f>D134/1000</f>
-        <v>9068.5540000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -2326,15 +4279,15 @@
         <v>100</v>
       </c>
       <c r="F135">
-        <f>C135/1000</f>
-        <v>657.78899999999999</v>
+        <f t="shared" si="2"/>
+        <v>657</v>
       </c>
       <c r="G135">
-        <f>D135/1000</f>
-        <v>8401.0210000000006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>113</v>
       </c>
@@ -2351,15 +4304,15 @@
         <v>100</v>
       </c>
       <c r="F136">
-        <f>C136/1000</f>
-        <v>660.81200000000001</v>
+        <f t="shared" si="2"/>
+        <v>660</v>
       </c>
       <c r="G136">
-        <f>D136/1000</f>
-        <v>9829.5159999999996</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>113</v>
       </c>
@@ -2376,15 +4329,15 @@
         <v>100</v>
       </c>
       <c r="F137">
-        <f>C137/1000</f>
-        <v>602.22500000000002</v>
+        <f t="shared" si="2"/>
+        <v>602</v>
       </c>
       <c r="G137">
-        <f>D137/1000</f>
-        <v>2733.8789999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>113</v>
       </c>
@@ -2401,15 +4354,15 @@
         <v>100</v>
       </c>
       <c r="F138">
-        <f>C138/1000</f>
-        <v>657.51900000000001</v>
+        <f t="shared" si="2"/>
+        <v>657</v>
       </c>
       <c r="G138">
-        <f>D138/1000</f>
-        <v>2951.0970000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>113</v>
       </c>
@@ -2426,15 +4379,15 @@
         <v>100</v>
       </c>
       <c r="F139">
-        <f>C139/1000</f>
-        <v>663.26300000000003</v>
+        <f t="shared" si="2"/>
+        <v>663</v>
       </c>
       <c r="G139">
-        <f>D139/1000</f>
+        <f t="shared" si="3"/>
         <v>5844.6</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -2451,15 +4404,15 @@
         <v>1000</v>
       </c>
       <c r="F140">
-        <f>C140/1000</f>
-        <v>6434.9759999999997</v>
+        <f t="shared" si="2"/>
+        <v>6434</v>
       </c>
       <c r="G140">
-        <f>D140/1000</f>
+        <f t="shared" si="3"/>
         <v>9933.02</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -2476,15 +4429,15 @@
         <v>1000</v>
       </c>
       <c r="F141">
-        <f>C141/1000</f>
-        <v>6450.1040000000003</v>
+        <f t="shared" si="2"/>
+        <v>6450</v>
       </c>
       <c r="G141">
-        <f>D141/1000</f>
-        <v>20516.611000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -2501,15 +4454,15 @@
         <v>1000</v>
       </c>
       <c r="F142">
-        <f>C142/1000</f>
-        <v>6447.7120000000004</v>
+        <f t="shared" si="2"/>
+        <v>6447</v>
       </c>
       <c r="G142">
-        <f>D142/1000</f>
+        <f t="shared" si="3"/>
         <v>12022.402</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -2526,15 +4479,15 @@
         <v>1000</v>
       </c>
       <c r="F143">
-        <f>C143/1000</f>
-        <v>6451.5619999999999</v>
+        <f t="shared" si="2"/>
+        <v>6451</v>
       </c>
       <c r="G143">
-        <f>D143/1000</f>
+        <f t="shared" si="3"/>
         <v>14712.507</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -2551,15 +4504,15 @@
         <v>1000</v>
       </c>
       <c r="F144">
-        <f>C144/1000</f>
-        <v>6433.8630000000003</v>
+        <f t="shared" si="2"/>
+        <v>6433</v>
       </c>
       <c r="G144">
-        <f>D144/1000</f>
+        <f t="shared" si="3"/>
         <v>10681.02</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>125</v>
       </c>
@@ -2576,15 +4529,15 @@
         <v>10</v>
       </c>
       <c r="F145">
-        <f>C145/1000</f>
+        <f t="shared" si="2"/>
         <v>102.992</v>
       </c>
       <c r="G145">
-        <f>D145/1000</f>
-        <v>9602.3729999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>9602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>125</v>
       </c>
@@ -2601,15 +4554,15 @@
         <v>10</v>
       </c>
       <c r="F146">
-        <f>C146/1000</f>
-        <v>93.263000000000005</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="G146">
-        <f>D146/1000</f>
+        <f t="shared" si="3"/>
         <v>1984.105</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>125</v>
       </c>
@@ -2626,15 +4579,15 @@
         <v>10</v>
       </c>
       <c r="F147">
-        <f>C147/1000</f>
-        <v>106.46599999999999</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="G147">
-        <f>D147/1000</f>
+        <f t="shared" si="3"/>
         <v>7235.607</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>125</v>
       </c>
@@ -2651,15 +4604,15 @@
         <v>10</v>
       </c>
       <c r="F148">
-        <f>C148/1000</f>
-        <v>104.43600000000001</v>
+        <f t="shared" si="2"/>
+        <v>104</v>
       </c>
       <c r="G148">
-        <f>D148/1000</f>
-        <v>2081.4430000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>125</v>
       </c>
@@ -2676,15 +4629,15 @@
         <v>10</v>
       </c>
       <c r="F149">
-        <f>C149/1000</f>
+        <f t="shared" si="2"/>
         <v>105.158</v>
       </c>
       <c r="G149">
-        <f>D149/1000</f>
-        <v>8751.2000000000007</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -2701,15 +4654,15 @@
         <v>100</v>
       </c>
       <c r="F150">
-        <f>C150/1000</f>
-        <v>665.50400000000002</v>
+        <f t="shared" si="2"/>
+        <v>665</v>
       </c>
       <c r="G150">
-        <f>D150/1000</f>
-        <v>3563.0070000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>115</v>
       </c>
@@ -2726,15 +4679,15 @@
         <v>100</v>
       </c>
       <c r="F151">
-        <f>C151/1000</f>
-        <v>663.09799999999996</v>
+        <f t="shared" si="2"/>
+        <v>663</v>
       </c>
       <c r="G151">
-        <f>D151/1000</f>
-        <v>6377.8779999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>115</v>
       </c>
@@ -2751,15 +4704,15 @@
         <v>100</v>
       </c>
       <c r="F152">
-        <f>C152/1000</f>
-        <v>661.66899999999998</v>
+        <f t="shared" si="2"/>
+        <v>661</v>
       </c>
       <c r="G152">
-        <f>D152/1000</f>
-        <v>2834.7060000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -2776,15 +4729,15 @@
         <v>100</v>
       </c>
       <c r="F153">
-        <f>C153/1000</f>
-        <v>660.64599999999996</v>
+        <f t="shared" si="2"/>
+        <v>660</v>
       </c>
       <c r="G153">
-        <f>D153/1000</f>
+        <f t="shared" si="3"/>
         <v>9289.366</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -2801,15 +4754,15 @@
         <v>100</v>
       </c>
       <c r="F154">
-        <f>C154/1000</f>
-        <v>635.60900000000004</v>
+        <f t="shared" si="2"/>
+        <v>635</v>
       </c>
       <c r="G154">
-        <f>D154/1000</f>
-        <v>2650.4349999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>105</v>
       </c>
@@ -2826,15 +4779,15 @@
         <v>1000</v>
       </c>
       <c r="F155">
-        <f>C155/1000</f>
-        <v>6462.9309999999996</v>
+        <f t="shared" si="2"/>
+        <v>6462</v>
       </c>
       <c r="G155">
-        <f>D155/1000</f>
-        <v>18956.311000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>105</v>
       </c>
@@ -2851,15 +4804,15 @@
         <v>1000</v>
       </c>
       <c r="F156">
-        <f>C156/1000</f>
-        <v>6466.1189999999997</v>
+        <f t="shared" si="2"/>
+        <v>6466</v>
       </c>
       <c r="G156">
-        <f>D156/1000</f>
+        <f t="shared" si="3"/>
         <v>15379.875</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>105</v>
       </c>
@@ -2876,15 +4829,15 @@
         <v>1000</v>
       </c>
       <c r="F157">
-        <f>C157/1000</f>
-        <v>6463.5169999999998</v>
+        <f t="shared" si="2"/>
+        <v>6463</v>
       </c>
       <c r="G157">
-        <f>D157/1000</f>
-        <v>10684.522999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>10684</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>105</v>
       </c>
@@ -2901,15 +4854,15 @@
         <v>1000</v>
       </c>
       <c r="F158">
-        <f>C158/1000</f>
-        <v>6469.9380000000001</v>
+        <f t="shared" si="2"/>
+        <v>6469</v>
       </c>
       <c r="G158">
-        <f>D158/1000</f>
-        <v>10708.041999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>10708</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>105</v>
       </c>
@@ -2926,40 +4879,40 @@
         <v>1000</v>
       </c>
       <c r="F159">
-        <f>C159/1000</f>
-        <v>6465.2160000000003</v>
+        <f t="shared" si="2"/>
+        <v>6465</v>
       </c>
       <c r="G159">
-        <f>D159/1000</f>
-        <v>15879.424000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>15879</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1">
       <c r="C160"/>
       <c r="F160">
-        <f>C160/1000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G160">
-        <f>D160/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1">
       <c r="B161" t="s">
         <v>129</v>
       </c>
       <c r="C161"/>
       <c r="F161">
-        <f>C161/1000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G161">
-        <f>D161/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>119</v>
       </c>
@@ -2976,15 +4929,15 @@
         <v>10</v>
       </c>
       <c r="F162">
-        <f>C162/1000</f>
+        <f t="shared" ref="F162:F193" si="4">C162/1000</f>
         <v>104.316</v>
       </c>
       <c r="G162">
-        <f>D162/1000</f>
-        <v>1627.0519999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G162:G193" si="5">D162/1000</f>
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -3001,15 +4954,15 @@
         <v>10</v>
       </c>
       <c r="F163">
-        <f>C163/1000</f>
-        <v>93.203000000000003</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="G163">
-        <f>D163/1000</f>
+        <f t="shared" si="5"/>
         <v>2035.999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -3026,15 +4979,15 @@
         <v>10</v>
       </c>
       <c r="F164">
-        <f>C164/1000</f>
+        <f t="shared" si="4"/>
         <v>104.902</v>
       </c>
       <c r="G164">
-        <f>D164/1000</f>
-        <v>6995.0510000000004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>119</v>
       </c>
@@ -3051,15 +5004,15 @@
         <v>10</v>
       </c>
       <c r="F165">
-        <f>C165/1000</f>
-        <v>93.173000000000002</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="G165">
-        <f>D165/1000</f>
+        <f t="shared" si="5"/>
         <v>1912.616</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>119</v>
       </c>
@@ -3076,15 +5029,15 @@
         <v>10</v>
       </c>
       <c r="F166">
-        <f>C166/1000</f>
-        <v>104.72199999999999</v>
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
       <c r="G166">
-        <f>D166/1000</f>
-        <v>9965.7710000000006</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>109</v>
       </c>
@@ -3101,15 +5054,15 @@
         <v>100</v>
       </c>
       <c r="F167">
-        <f>C167/1000</f>
+        <f t="shared" si="4"/>
         <v>666.827</v>
       </c>
       <c r="G167">
-        <f>D167/1000</f>
+        <f t="shared" si="5"/>
         <v>2112.165</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>109</v>
       </c>
@@ -3126,15 +5079,15 @@
         <v>100</v>
       </c>
       <c r="F168">
-        <f>C168/1000</f>
+        <f t="shared" si="4"/>
         <v>643.173</v>
       </c>
       <c r="G168">
-        <f>D168/1000</f>
-        <v>2625.5030000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>109</v>
       </c>
@@ -3151,15 +5104,15 @@
         <v>100</v>
       </c>
       <c r="F169">
-        <f>C169/1000</f>
-        <v>665.98500000000001</v>
+        <f t="shared" si="4"/>
+        <v>665</v>
       </c>
       <c r="G169">
-        <f>D169/1000</f>
+        <f t="shared" si="5"/>
         <v>8665.11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>109</v>
       </c>
@@ -3176,15 +5129,15 @@
         <v>100</v>
       </c>
       <c r="F170">
-        <f>C170/1000</f>
-        <v>666.63099999999997</v>
+        <f t="shared" si="4"/>
+        <v>666</v>
       </c>
       <c r="G170">
-        <f>D170/1000</f>
-        <v>7944.6890000000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>109</v>
       </c>
@@ -3201,15 +5154,15 @@
         <v>100</v>
       </c>
       <c r="F171">
-        <f>C171/1000</f>
-        <v>626.07500000000005</v>
+        <f t="shared" si="4"/>
+        <v>626</v>
       </c>
       <c r="G171">
-        <f>D171/1000</f>
-        <v>2761.0970000000002</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -3226,15 +5179,15 @@
         <v>1000</v>
       </c>
       <c r="F172">
-        <f>C172/1000</f>
-        <v>6466.0879999999997</v>
+        <f t="shared" si="4"/>
+        <v>6466</v>
       </c>
       <c r="G172">
-        <f>D172/1000</f>
+        <f t="shared" si="5"/>
         <v>9970.268</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>99</v>
       </c>
@@ -3251,15 +5204,15 @@
         <v>1000</v>
       </c>
       <c r="F173">
-        <f>C173/1000</f>
-        <v>6499.6220000000003</v>
+        <f t="shared" si="4"/>
+        <v>6499</v>
       </c>
       <c r="G173">
-        <f>D173/1000</f>
-        <v>17617.634999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>17617</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>99</v>
       </c>
@@ -3276,15 +5229,15 @@
         <v>1000</v>
       </c>
       <c r="F174">
-        <f>C174/1000</f>
+        <f t="shared" si="4"/>
         <v>6469.848</v>
       </c>
       <c r="G174">
-        <f>D174/1000</f>
+        <f t="shared" si="5"/>
         <v>10519.802</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>99</v>
       </c>
@@ -3301,15 +5254,15 @@
         <v>1000</v>
       </c>
       <c r="F175">
-        <f>C175/1000</f>
+        <f t="shared" si="4"/>
         <v>6494.84</v>
       </c>
       <c r="G175">
-        <f>D175/1000</f>
+        <f t="shared" si="5"/>
         <v>14391.47</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>99</v>
       </c>
@@ -3326,15 +5279,15 @@
         <v>1000</v>
       </c>
       <c r="F176">
-        <f>C176/1000</f>
-        <v>6500.4340000000002</v>
+        <f t="shared" si="4"/>
+        <v>6500</v>
       </c>
       <c r="G176">
-        <f>D176/1000</f>
+        <f t="shared" si="5"/>
         <v>10667.832</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -3351,15 +5304,15 @@
         <v>10</v>
       </c>
       <c r="F177">
-        <f>C177/1000</f>
-        <v>1115.1579999999999</v>
+        <f t="shared" si="4"/>
+        <v>1115</v>
       </c>
       <c r="G177">
-        <f>D177/1000</f>
-        <v>8108.9449999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>126</v>
       </c>
@@ -3376,15 +5329,15 @@
         <v>10</v>
       </c>
       <c r="F178">
-        <f>C178/1000</f>
-        <v>1085.0219999999999</v>
+        <f t="shared" si="4"/>
+        <v>1085</v>
       </c>
       <c r="G178">
-        <f>D178/1000</f>
-        <v>2052.4059999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>126</v>
       </c>
@@ -3401,15 +5354,15 @@
         <v>10</v>
       </c>
       <c r="F179">
-        <f>C179/1000</f>
-        <v>1125.0820000000001</v>
+        <f t="shared" si="4"/>
+        <v>1125</v>
       </c>
       <c r="G179">
-        <f>D179/1000</f>
-        <v>5379.1710000000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -3426,15 +5379,15 @@
         <v>10</v>
       </c>
       <c r="F180">
-        <f>C180/1000</f>
+        <f t="shared" si="4"/>
         <v>1242.902</v>
       </c>
       <c r="G180">
-        <f>D180/1000</f>
-        <v>1931.8789999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -3451,15 +5404,15 @@
         <v>10</v>
       </c>
       <c r="F181">
-        <f>C181/1000</f>
-        <v>1120.7059999999999</v>
+        <f t="shared" si="4"/>
+        <v>1120</v>
       </c>
       <c r="G181">
-        <f>D181/1000</f>
-        <v>7086.6750000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>116</v>
       </c>
@@ -3476,15 +5429,15 @@
         <v>100</v>
       </c>
       <c r="F182">
-        <f>C182/1000</f>
+        <f t="shared" si="4"/>
         <v>10859.516</v>
       </c>
       <c r="G182">
-        <f>D182/1000</f>
+        <f t="shared" si="5"/>
         <v>3011.578</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>116</v>
       </c>
@@ -3501,15 +5454,15 @@
         <v>100</v>
       </c>
       <c r="F183">
-        <f>C183/1000</f>
-        <v>10814.824000000001</v>
+        <f t="shared" si="4"/>
+        <v>10814</v>
       </c>
       <c r="G183">
-        <f>D183/1000</f>
-        <v>6014.3140000000003</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>116</v>
       </c>
@@ -3526,15 +5479,15 @@
         <v>100</v>
       </c>
       <c r="F184">
-        <f>C184/1000</f>
+        <f t="shared" si="4"/>
         <v>10697.892</v>
       </c>
       <c r="G184">
-        <f>D184/1000</f>
-        <v>1936.4359999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>116</v>
       </c>
@@ -3551,15 +5504,15 @@
         <v>100</v>
       </c>
       <c r="F185">
-        <f>C185/1000</f>
-        <v>10683.396000000001</v>
+        <f t="shared" si="4"/>
+        <v>10683</v>
       </c>
       <c r="G185">
-        <f>D185/1000</f>
-        <v>8606.2080000000005</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>116</v>
       </c>
@@ -3576,15 +5529,15 @@
         <v>100</v>
       </c>
       <c r="F186">
-        <f>C186/1000</f>
+        <f t="shared" si="4"/>
         <v>10838.087</v>
       </c>
       <c r="G186">
-        <f>D186/1000</f>
+        <f t="shared" si="5"/>
         <v>1884.586</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>106</v>
       </c>
@@ -3601,15 +5554,15 @@
         <v>1000</v>
       </c>
       <c r="F187">
-        <f>C187/1000</f>
+        <f t="shared" si="4"/>
         <v>107034.406</v>
       </c>
       <c r="G187">
-        <f>D187/1000</f>
-        <v>10735.620999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>106</v>
       </c>
@@ -3626,15 +5579,15 @@
         <v>1000</v>
       </c>
       <c r="F188">
-        <f>C188/1000</f>
+        <f t="shared" si="4"/>
         <v>107114.523</v>
       </c>
       <c r="G188">
-        <f>D188/1000</f>
-        <v>7647.7269999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>106</v>
       </c>
@@ -3651,15 +5604,15 @@
         <v>1000</v>
       </c>
       <c r="F189">
-        <f>C189/1000</f>
+        <f t="shared" si="4"/>
         <v>106957.5</v>
       </c>
       <c r="G189">
-        <f>D189/1000</f>
-        <v>1947.4580000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>106</v>
       </c>
@@ -3676,15 +5629,15 @@
         <v>1000</v>
       </c>
       <c r="F190">
-        <f>C190/1000</f>
+        <f t="shared" si="4"/>
         <v>106889.836</v>
       </c>
       <c r="G190">
-        <f>D190/1000</f>
-        <v>2062.7809999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>106</v>
       </c>
@@ -3701,40 +5654,40 @@
         <v>1000</v>
       </c>
       <c r="F191">
-        <f>C191/1000</f>
+        <f t="shared" si="4"/>
         <v>107045.516</v>
       </c>
       <c r="G191">
-        <f>D191/1000</f>
-        <v>7584.1779999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1">
       <c r="C192"/>
       <c r="F192">
-        <f>C192/1000</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G192">
-        <f>D192/1000</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1">
       <c r="B193" t="s">
         <v>130</v>
       </c>
       <c r="C193"/>
       <c r="F193">
-        <f>C193/1000</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G193">
-        <f>D193/1000</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>120</v>
       </c>
@@ -3751,15 +5704,15 @@
         <v>10</v>
       </c>
       <c r="F194">
-        <f>C194/1000</f>
-        <v>2942.0740000000001</v>
+        <f t="shared" ref="F194:F225" si="6">C194/1000</f>
+        <v>2942</v>
       </c>
       <c r="G194">
-        <f>D194/1000</f>
-        <v>9750.7790000000005</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G194:G225" si="7">D194/1000</f>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>120</v>
       </c>
@@ -3776,15 +5729,15 @@
         <v>10</v>
       </c>
       <c r="F195">
-        <f>C195/1000</f>
+        <f t="shared" si="6"/>
         <v>2761.864</v>
       </c>
       <c r="G195">
-        <f>D195/1000</f>
-        <v>2054.4360000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>120</v>
       </c>
@@ -3801,15 +5754,15 @@
         <v>10</v>
       </c>
       <c r="F196">
-        <f>C196/1000</f>
-        <v>3073.2170000000001</v>
+        <f t="shared" si="6"/>
+        <v>3073</v>
       </c>
       <c r="G196">
-        <f>D196/1000</f>
-        <v>5930.3739999999998</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>120</v>
       </c>
@@ -3826,15 +5779,15 @@
         <v>10</v>
       </c>
       <c r="F197">
-        <f>C197/1000</f>
+        <f t="shared" si="6"/>
         <v>2765.172</v>
       </c>
       <c r="G197">
-        <f>D197/1000</f>
-        <v>1936.9469999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>120</v>
       </c>
@@ -3851,15 +5804,15 @@
         <v>10</v>
       </c>
       <c r="F198">
-        <f>C198/1000</f>
-        <v>2940.9169999999999</v>
+        <f t="shared" si="6"/>
+        <v>2940</v>
       </c>
       <c r="G198">
-        <f>D198/1000</f>
-        <v>8455.9680000000008</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>110</v>
       </c>
@@ -3876,15 +5829,15 @@
         <v>100</v>
       </c>
       <c r="F199">
-        <f>C199/1000</f>
+        <f t="shared" si="6"/>
         <v>29382.623</v>
       </c>
       <c r="G199">
-        <f>D199/1000</f>
-        <v>1263.8340000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>110</v>
       </c>
@@ -3901,15 +5854,15 @@
         <v>100</v>
       </c>
       <c r="F200">
-        <f>C200/1000</f>
-        <v>29377.721000000001</v>
+        <f t="shared" si="6"/>
+        <v>29377</v>
       </c>
       <c r="G200">
-        <f>D200/1000</f>
+        <f t="shared" si="7"/>
         <v>1696.165</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -3926,15 +5879,15 @@
         <v>100</v>
       </c>
       <c r="F201">
-        <f>C201/1000</f>
+        <f t="shared" si="6"/>
         <v>29192.143</v>
       </c>
       <c r="G201">
-        <f>D201/1000</f>
-        <v>8685.0499999999993</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>110</v>
       </c>
@@ -3951,15 +5904,15 @@
         <v>100</v>
       </c>
       <c r="F202">
-        <f>C202/1000</f>
-        <v>29214.668000000001</v>
+        <f t="shared" si="6"/>
+        <v>29214</v>
       </c>
       <c r="G202">
-        <f>D202/1000</f>
-        <v>7410.3130000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>110</v>
       </c>
@@ -3976,15 +5929,15 @@
         <v>100</v>
       </c>
       <c r="F203">
-        <f>C203/1000</f>
-        <v>29168.111000000001</v>
+        <f t="shared" si="6"/>
+        <v>29168</v>
       </c>
       <c r="G203">
-        <f>D203/1000</f>
-        <v>1938.7809999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>100</v>
       </c>
@@ -4001,15 +5954,15 @@
         <v>1000</v>
       </c>
       <c r="F204">
-        <f>C204/1000</f>
-        <v>291812.68800000002</v>
+        <f t="shared" si="6"/>
+        <v>291812</v>
       </c>
       <c r="G204">
-        <f>D204/1000</f>
+        <f t="shared" si="7"/>
         <v>1354.376</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>100</v>
       </c>
@@ -4026,15 +5979,15 @@
         <v>1000</v>
       </c>
       <c r="F205">
-        <f>C205/1000</f>
-        <v>291848.31199999998</v>
+        <f t="shared" si="6"/>
+        <v>291848</v>
       </c>
       <c r="G205">
-        <f>D205/1000</f>
+        <f t="shared" si="7"/>
         <v>10255.32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>100</v>
       </c>
@@ -4051,15 +6004,15 @@
         <v>1000</v>
       </c>
       <c r="F206">
-        <f>C206/1000</f>
-        <v>292068.65600000002</v>
+        <f t="shared" si="6"/>
+        <v>292068</v>
       </c>
       <c r="G206">
-        <f>D206/1000</f>
+        <f t="shared" si="7"/>
         <v>1696.451</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>100</v>
       </c>
@@ -4076,15 +6029,15 @@
         <v>1000</v>
       </c>
       <c r="F207">
-        <f>C207/1000</f>
-        <v>292278.34399999998</v>
+        <f t="shared" si="6"/>
+        <v>292278</v>
       </c>
       <c r="G207">
-        <f>D207/1000</f>
-        <v>5915.4120000000003</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>100</v>
       </c>
@@ -4101,15 +6054,15 @@
         <v>1000</v>
       </c>
       <c r="F208">
-        <f>C208/1000</f>
-        <v>291776.68800000002</v>
+        <f t="shared" si="6"/>
+        <v>291776</v>
       </c>
       <c r="G208">
-        <f>D208/1000</f>
-        <v>2065.8040000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>122</v>
       </c>
@@ -4126,15 +6079,15 @@
         <v>10</v>
       </c>
       <c r="F209">
-        <f>C209/1000</f>
+        <f t="shared" si="6"/>
         <v>1243.684</v>
       </c>
       <c r="G209">
-        <f>D209/1000</f>
-        <v>9730.5840000000007</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9730</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>122</v>
       </c>
@@ -4151,15 +6104,15 @@
         <v>10</v>
       </c>
       <c r="F210">
-        <f>C210/1000</f>
+        <f t="shared" si="6"/>
         <v>1048.165</v>
       </c>
       <c r="G210">
-        <f>D210/1000</f>
+        <f t="shared" si="7"/>
         <v>1924.27</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>122</v>
       </c>
@@ -4176,15 +6129,15 @@
         <v>10</v>
       </c>
       <c r="F211">
-        <f>C211/1000</f>
-        <v>1115.2629999999999</v>
+        <f t="shared" si="6"/>
+        <v>1115</v>
       </c>
       <c r="G211">
-        <f>D211/1000</f>
-        <v>7354.8850000000002</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7354</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>122</v>
       </c>
@@ -4201,15 +6154,15 @@
         <v>10</v>
       </c>
       <c r="F212">
-        <f>C212/1000</f>
+        <f t="shared" si="6"/>
         <v>1116.105</v>
       </c>
       <c r="G212">
-        <f>D212/1000</f>
-        <v>1932.2249999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>122</v>
       </c>
@@ -4226,15 +6179,15 @@
         <v>10</v>
       </c>
       <c r="F213">
-        <f>C213/1000</f>
-        <v>1243.9390000000001</v>
+        <f t="shared" si="6"/>
+        <v>1243</v>
       </c>
       <c r="G213">
-        <f>D213/1000</f>
-        <v>8650.8850000000002</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>112</v>
       </c>
@@ -4251,15 +6204,15 @@
         <v>100</v>
       </c>
       <c r="F214">
-        <f>C214/1000</f>
+        <f t="shared" si="6"/>
         <v>10677.23</v>
       </c>
       <c r="G214">
-        <f>D214/1000</f>
+        <f t="shared" si="7"/>
         <v>1355.067</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>112</v>
       </c>
@@ -4276,15 +6229,15 @@
         <v>100</v>
       </c>
       <c r="F215">
-        <f>C215/1000</f>
+        <f t="shared" si="6"/>
         <v>10693.109</v>
       </c>
       <c r="G215">
-        <f>D215/1000</f>
-        <v>1938.7660000000001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>112</v>
       </c>
@@ -4301,15 +6254,15 @@
         <v>100</v>
       </c>
       <c r="F216">
-        <f>C216/1000</f>
-        <v>10877.951999999999</v>
+        <f t="shared" si="6"/>
+        <v>10877</v>
       </c>
       <c r="G216">
-        <f>D216/1000</f>
-        <v>5141.7430000000004</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>112</v>
       </c>
@@ -4326,15 +6279,15 @@
         <v>100</v>
       </c>
       <c r="F217">
-        <f>C217/1000</f>
-        <v>10870.147000000001</v>
+        <f t="shared" si="6"/>
+        <v>10870</v>
       </c>
       <c r="G217">
-        <f>D217/1000</f>
-        <v>2998.6610000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>112</v>
       </c>
@@ -4351,15 +6304,15 @@
         <v>100</v>
       </c>
       <c r="F218">
-        <f>C218/1000</f>
-        <v>10683.620999999999</v>
+        <f t="shared" si="6"/>
+        <v>10683</v>
       </c>
       <c r="G218">
-        <f>D218/1000</f>
-        <v>1930.6610000000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>102</v>
       </c>
@@ -4376,15 +6329,15 @@
         <v>1000</v>
       </c>
       <c r="F219">
-        <f>C219/1000</f>
+        <f t="shared" si="6"/>
         <v>107024.133</v>
       </c>
       <c r="G219">
-        <f>D219/1000</f>
+        <f t="shared" si="7"/>
         <v>10335.08</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>102</v>
       </c>
@@ -4401,15 +6354,15 @@
         <v>1000</v>
       </c>
       <c r="F220">
-        <f>C220/1000</f>
+        <f t="shared" si="6"/>
         <v>107261.25</v>
       </c>
       <c r="G220">
-        <f>D220/1000</f>
-        <v>4859.1109999999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>102</v>
       </c>
@@ -4426,15 +6379,15 @@
         <v>1000</v>
       </c>
       <c r="F221">
-        <f>C221/1000</f>
+        <f t="shared" si="6"/>
         <v>107050.133</v>
       </c>
       <c r="G221">
-        <f>D221/1000</f>
+        <f t="shared" si="7"/>
         <v>11451.14</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -4451,15 +6404,15 @@
         <v>1000</v>
       </c>
       <c r="F222">
-        <f>C222/1000</f>
-        <v>106874.04700000001</v>
+        <f t="shared" si="6"/>
+        <v>106874</v>
       </c>
       <c r="G222">
-        <f>D222/1000</f>
-        <v>2064.4659999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>102</v>
       </c>
@@ -4476,40 +6429,40 @@
         <v>1000</v>
       </c>
       <c r="F223">
-        <f>C223/1000</f>
+        <f t="shared" si="6"/>
         <v>107085.969</v>
       </c>
       <c r="G223">
-        <f>D223/1000</f>
-        <v>7078.4040000000005</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1">
       <c r="C224"/>
       <c r="F224">
-        <f>C224/1000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G224">
-        <f>D224/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1">
       <c r="B225" t="s">
         <v>131</v>
       </c>
       <c r="C225"/>
       <c r="F225">
-        <f>C225/1000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G225">
-        <f>D225/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>124</v>
       </c>
@@ -4526,15 +6479,15 @@
         <v>10</v>
       </c>
       <c r="F226">
-        <f>C226/1000</f>
-        <v>2944.0889999999999</v>
+        <f t="shared" ref="F226:F255" si="8">C226/1000</f>
+        <v>2944</v>
       </c>
       <c r="G226">
-        <f>D226/1000</f>
-        <v>8141.6670000000004</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G226:G255" si="9">D226/1000</f>
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -4551,15 +6504,15 @@
         <v>10</v>
       </c>
       <c r="F227">
-        <f>C227/1000</f>
-        <v>2907.9090000000001</v>
+        <f t="shared" si="8"/>
+        <v>2907</v>
       </c>
       <c r="G227">
-        <f>D227/1000</f>
-        <v>1924.9770000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>124</v>
       </c>
@@ -4576,15 +6529,15 @@
         <v>10</v>
       </c>
       <c r="F228">
-        <f>C228/1000</f>
-        <v>2949.7130000000002</v>
+        <f t="shared" si="8"/>
+        <v>2949</v>
       </c>
       <c r="G228">
-        <f>D228/1000</f>
-        <v>5218.0290000000005</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>124</v>
       </c>
@@ -4601,15 +6554,15 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <f>C229/1000</f>
-        <v>2950.4949999999999</v>
+        <f t="shared" si="8"/>
+        <v>2950</v>
       </c>
       <c r="G229">
-        <f>D229/1000</f>
+        <f t="shared" si="9"/>
         <v>1929.518</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>124</v>
       </c>
@@ -4626,15 +6579,15 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <f>C230/1000</f>
+        <f t="shared" si="8"/>
         <v>2949.819</v>
       </c>
       <c r="G230">
-        <f>D230/1000</f>
+        <f t="shared" si="9"/>
         <v>7126.6</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>114</v>
       </c>
@@ -4651,15 +6604,15 @@
         <v>100</v>
       </c>
       <c r="F231">
-        <f>C231/1000</f>
+        <f t="shared" si="8"/>
         <v>29052.143</v>
       </c>
       <c r="G231">
-        <f>D231/1000</f>
-        <v>7617.5619999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>114</v>
       </c>
@@ -4676,15 +6629,15 @@
         <v>100</v>
       </c>
       <c r="F232">
-        <f>C232/1000</f>
-        <v>29198.203000000001</v>
+        <f t="shared" si="8"/>
+        <v>29198</v>
       </c>
       <c r="G232">
-        <f>D232/1000</f>
-        <v>9718.1630000000005</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>9718</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -4701,15 +6654,15 @@
         <v>100</v>
       </c>
       <c r="F233">
-        <f>C233/1000</f>
+        <f t="shared" si="8"/>
         <v>29115.33</v>
       </c>
       <c r="G233">
-        <f>D233/1000</f>
+        <f t="shared" si="9"/>
         <v>2000.751</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>114</v>
       </c>
@@ -4726,15 +6679,15 @@
         <v>100</v>
       </c>
       <c r="F234">
-        <f>C234/1000</f>
-        <v>29205.013999999999</v>
+        <f t="shared" si="8"/>
+        <v>29205</v>
       </c>
       <c r="G234">
-        <f>D234/1000</f>
-        <v>1947.9390000000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>114</v>
       </c>
@@ -4751,15 +6704,15 @@
         <v>100</v>
       </c>
       <c r="F235">
-        <f>C235/1000</f>
-        <v>29182.955000000002</v>
+        <f t="shared" si="8"/>
+        <v>29182</v>
       </c>
       <c r="G235">
-        <f>D235/1000</f>
-        <v>5365.0659999999998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>104</v>
       </c>
@@ -4776,15 +6729,15 @@
         <v>1000</v>
       </c>
       <c r="F236">
-        <f>C236/1000</f>
-        <v>291917.90600000002</v>
+        <f t="shared" si="8"/>
+        <v>291917</v>
       </c>
       <c r="G236">
-        <f>D236/1000</f>
-        <v>1177.6690000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>104</v>
       </c>
@@ -4801,15 +6754,15 @@
         <v>1000</v>
       </c>
       <c r="F237">
-        <f>C237/1000</f>
-        <v>291857.40600000002</v>
+        <f t="shared" si="8"/>
+        <v>291857</v>
       </c>
       <c r="G237">
-        <f>D237/1000</f>
-        <v>2064.2550000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -4826,15 +6779,15 @@
         <v>1000</v>
       </c>
       <c r="F238">
-        <f>C238/1000</f>
-        <v>291974.96899999998</v>
+        <f t="shared" si="8"/>
+        <v>291974</v>
       </c>
       <c r="G238">
-        <f>D238/1000</f>
+        <f t="shared" si="9"/>
         <v>4090.51</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>104</v>
       </c>
@@ -4851,15 +6804,15 @@
         <v>1000</v>
       </c>
       <c r="F239">
-        <f>C239/1000</f>
+        <f t="shared" si="8"/>
         <v>292022.125</v>
       </c>
       <c r="G239">
-        <f>D239/1000</f>
-        <v>6196.7650000000003</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>104</v>
       </c>
@@ -4876,15 +6829,15 @@
         <v>1000</v>
       </c>
       <c r="F240">
-        <f>C240/1000</f>
-        <v>292025.46899999998</v>
+        <f t="shared" si="8"/>
+        <v>292025</v>
       </c>
       <c r="G240">
-        <f>D240/1000</f>
+        <f t="shared" si="9"/>
         <v>1939.308</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>118</v>
       </c>
@@ -4901,15 +6854,15 @@
         <v>10</v>
       </c>
       <c r="F241">
-        <f>C241/1000</f>
+        <f t="shared" si="8"/>
         <v>189.203</v>
       </c>
       <c r="G241">
-        <f>D241/1000</f>
-        <v>1360.2550000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>118</v>
       </c>
@@ -4926,15 +6879,15 @@
         <v>10</v>
       </c>
       <c r="F242">
-        <f>C242/1000</f>
+        <f t="shared" si="8"/>
         <v>162.511</v>
       </c>
       <c r="G242">
-        <f>D242/1000</f>
-        <v>1856.3910000000001</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>118</v>
       </c>
@@ -4951,15 +6904,15 @@
         <v>10</v>
       </c>
       <c r="F243">
-        <f>C243/1000</f>
-        <v>190.99199999999999</v>
+        <f t="shared" si="8"/>
+        <v>190</v>
       </c>
       <c r="G243">
-        <f>D243/1000</f>
-        <v>7596.4489999999996</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>7596</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>118</v>
       </c>
@@ -4976,15 +6929,15 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <f>C244/1000</f>
-        <v>189.44399999999999</v>
+        <f t="shared" si="8"/>
+        <v>189</v>
       </c>
       <c r="G244">
-        <f>D244/1000</f>
+        <f t="shared" si="9"/>
         <v>1830.481</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -5001,15 +6954,15 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <f>C245/1000</f>
+        <f t="shared" si="8"/>
         <v>188.21</v>
       </c>
       <c r="G245">
-        <f>D245/1000</f>
+        <f t="shared" si="9"/>
         <v>1932.15</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>108</v>
       </c>
@@ -5026,15 +6979,15 @@
         <v>100</v>
       </c>
       <c r="F246">
-        <f>C246/1000</f>
-        <v>1443.8040000000001</v>
+        <f t="shared" si="8"/>
+        <v>1443</v>
       </c>
       <c r="G246">
-        <f>D246/1000</f>
+        <f t="shared" si="9"/>
         <v>1299.097</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>108</v>
       </c>
@@ -5051,15 +7004,15 @@
         <v>100</v>
       </c>
       <c r="F247">
-        <f>C247/1000</f>
-        <v>1273.6089999999999</v>
+        <f t="shared" si="8"/>
+        <v>1273</v>
       </c>
       <c r="G247">
-        <f>D247/1000</f>
-        <v>2030.2550000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>108</v>
       </c>
@@ -5076,15 +7029,15 @@
         <v>100</v>
       </c>
       <c r="F248">
-        <f>C248/1000</f>
-        <v>1449.5630000000001</v>
+        <f t="shared" si="8"/>
+        <v>1449</v>
       </c>
       <c r="G248">
-        <f>D248/1000</f>
-        <v>6522.8549999999996</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>108</v>
       </c>
@@ -5101,15 +7054,15 @@
         <v>100</v>
       </c>
       <c r="F249">
-        <f>C249/1000</f>
-        <v>1449.6389999999999</v>
+        <f t="shared" si="8"/>
+        <v>1449</v>
       </c>
       <c r="G249">
-        <f>D249/1000</f>
+        <f t="shared" si="9"/>
         <v>6478.058</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>108</v>
       </c>
@@ -5126,15 +7079,15 @@
         <v>100</v>
       </c>
       <c r="F250">
-        <f>C250/1000</f>
-        <v>1542.7809999999999</v>
+        <f t="shared" si="8"/>
+        <v>1542</v>
       </c>
       <c r="G250">
-        <f>D250/1000</f>
-        <v>1933.5630000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>97</v>
       </c>
@@ -5151,15 +7104,15 @@
         <v>1000</v>
       </c>
       <c r="F251">
-        <f>C251/1000</f>
+        <f t="shared" si="8"/>
         <v>14312.974</v>
       </c>
       <c r="G251">
-        <f>D251/1000</f>
-        <v>1308.6310000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>97</v>
       </c>
@@ -5176,15 +7129,15 @@
         <v>1000</v>
       </c>
       <c r="F252">
-        <f>C252/1000</f>
-        <v>13959.771000000001</v>
+        <f t="shared" si="8"/>
+        <v>13959</v>
       </c>
       <c r="G252">
-        <f>D252/1000</f>
-        <v>2069.0219999999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>97</v>
       </c>
@@ -5201,15 +7154,15 @@
         <v>1000</v>
       </c>
       <c r="F253">
-        <f>C253/1000</f>
-        <v>14226.718000000001</v>
+        <f t="shared" si="8"/>
+        <v>14226</v>
       </c>
       <c r="G253">
-        <f>D253/1000</f>
+        <f t="shared" si="9"/>
         <v>1892.345</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>97</v>
       </c>
@@ -5226,15 +7179,15 @@
         <v>1000</v>
       </c>
       <c r="F254">
-        <f>C254/1000</f>
+        <f t="shared" si="8"/>
         <v>13965.108</v>
       </c>
       <c r="G254">
-        <f>D254/1000</f>
+        <f t="shared" si="9"/>
         <v>1938.375</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>97</v>
       </c>
@@ -5251,42 +7204,42 @@
         <v>1000</v>
       </c>
       <c r="F255">
-        <f>C255/1000</f>
+        <f t="shared" si="8"/>
         <v>14139.53</v>
       </c>
       <c r="G255">
-        <f>D255/1000</f>
-        <v>1928.6610000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" hidden="1">
       <c r="C256"/>
     </row>
-    <row r="257" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" hidden="1">
       <c r="B257" t="s">
         <v>19</v>
       </c>
       <c r="C257"/>
     </row>
-    <row r="258" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" hidden="1">
       <c r="B258" t="s">
         <v>132</v>
       </c>
       <c r="C258"/>
     </row>
-    <row r="259" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" hidden="1">
       <c r="B259" t="s">
         <v>2</v>
       </c>
       <c r="C259"/>
     </row>
-    <row r="260" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" hidden="1">
       <c r="B260" t="s">
         <v>133</v>
       </c>
       <c r="C260"/>
     </row>
-    <row r="261" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" hidden="1">
       <c r="B261" t="s">
         <v>134</v>
       </c>
@@ -5339,25 +7292,3228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
+      <c r="A3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>104.496</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9857</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1243.684</v>
+      </c>
+      <c r="G3" s="10">
+        <v>9730</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
+      <c r="A4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>97</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2063.308</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1048.165</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1924.27</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>105.158</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6980</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1115</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7354</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
+        <v>105.459</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2216.09</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1116.105</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1932</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
+      <c r="A7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>104.962</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9068</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1243</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8650</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f>AVERAGE(D3:D7)</f>
+        <v>103.41500000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:G8" si="0">AVERAGE(E3:E7)</f>
+        <v>6036.8796000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>1153.1907999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>5918.0540000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8/SUM($D$8:$F$20)*1</f>
+        <v>1.1833713078061393E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/SUM($F$8:$F$20)</f>
+        <v>1.6286437284209795E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>657</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8401</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10677.23</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1355.067</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H20" si="1">D9/SUM($D$8:$F$20)*1</f>
+        <v>7.5180094689226268E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I20" si="2">F9/SUM($F$8:$F$20)</f>
+        <v>1.5079381205962047E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>660</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9829</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10693.109</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1938</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5523382792830047E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5101807012483915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>602</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2733</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10877</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5141</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8886479456490429E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5361515053740454E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>657</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2951</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10870</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2998</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5180094689226268E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5351629000106531E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>663</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5844.6</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10683</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1930</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5866670896433815E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5087530138743152E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D9:D13)</f>
+        <v>647.79999999999995</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14" si="3">AVERAGE(E9:E13)</f>
+        <v>5951.7199999999993</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="4">AVERAGE(F9:F13)</f>
+        <v>10760.067800000001</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14" si="5">AVERAGE(G9:G13)</f>
+        <v>2672.4133999999999</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4127344504841357E-4</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.519637248220722E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6434</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9933.02</v>
+      </c>
+      <c r="F15" s="7">
+        <v>107024.133</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10335.08</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3623855286222501E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15114947413744786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6450</v>
+      </c>
+      <c r="E16" s="7">
+        <v>20516</v>
+      </c>
+      <c r="F16" s="7">
+        <v>107261.25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4859</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3806942274811174E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15148435290595003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6447</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12022.402</v>
+      </c>
+      <c r="F17" s="7">
+        <v>107050.133</v>
+      </c>
+      <c r="G17" s="7">
+        <v>11451.14</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3772613464450805E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15118619376523101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6451</v>
+      </c>
+      <c r="E18" s="7">
+        <v>14712.507</v>
+      </c>
+      <c r="F18" s="7">
+        <v>106874</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2064</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3818385211597967E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15093744229598763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6433</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10681.02</v>
+      </c>
+      <c r="F19" s="7">
+        <v>107085.969</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7078</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3612412349435708E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1512368047106632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D15:D19)</f>
+        <v>6443</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20" si="6">AVERAGE(E15:E19)</f>
+        <v>13572.989799999999</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="7">AVERAGE(F15:F19)</f>
+        <v>107059.09699999999</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20" si="8">AVERAGE(G15:G19)</f>
+        <v>7157.4440000000004</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3726841717303634E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15119885356305593</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1">
+      <c r="A3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>105.429</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1520.135</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2942</v>
+      </c>
+      <c r="G3" s="10">
+        <v>9750</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3">
+        <v>2942</v>
+      </c>
+      <c r="L3">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
+      <c r="A4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>92</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2011.578</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2761.864</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2054</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4">
+        <v>2761.864</v>
+      </c>
+      <c r="L4">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>102.947</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8303</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3073</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5930</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5">
+        <v>3073</v>
+      </c>
+      <c r="L5">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
+        <v>93.128</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2075</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2765.172</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1936</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6">
+        <v>2765.172</v>
+      </c>
+      <c r="L6">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1">
+      <c r="A7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>102</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10148.087</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2940</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8455</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="K7">
+        <v>2940</v>
+      </c>
+      <c r="L7">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f>AVERAGE(D3:D7)</f>
+        <v>99.100799999999992</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:G8" si="0">AVERAGE(E3:E7)</f>
+        <v>4811.5599999999995</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>2896.4072000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8/SUM($D$8:$F$20)*1</f>
+        <v>5.2697488590801329E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/SUM($F$8:$F$20)</f>
+        <v>1.6952288874081294E-3</v>
+      </c>
+      <c r="K8">
+        <v>29382.623</v>
+      </c>
+      <c r="L8">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>653.97</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2368.48</v>
+      </c>
+      <c r="F9" s="7">
+        <v>29382.623</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1263</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H20" si="1">D9/SUM($D$8:$F$20)*1</f>
+        <v>3.4775275894570321E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I20" si="2">F9/SUM($F$8:$F$20)</f>
+        <v>1.7197261247459444E-2</v>
+      </c>
+      <c r="K9">
+        <v>29377</v>
+      </c>
+      <c r="L9">
+        <v>1696.165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>663</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2943</v>
+      </c>
+      <c r="F10" s="7">
+        <v>29377</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1696.165</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5255451959723111E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7193970179810565E-2</v>
+      </c>
+      <c r="K10">
+        <v>29192.143</v>
+      </c>
+      <c r="L10">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>659</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5226</v>
+      </c>
+      <c r="F11" s="7">
+        <v>29192.143</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8685</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5042749383797182E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7085775818727771E-2</v>
+      </c>
+      <c r="K11">
+        <v>29214</v>
+      </c>
+      <c r="L11">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>665</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3583</v>
+      </c>
+      <c r="F12" s="7">
+        <v>29214</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7410</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5361803247686076E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7098568432208389E-2</v>
+      </c>
+      <c r="K12">
+        <v>29168</v>
+      </c>
+      <c r="L12">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>663</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11602</v>
+      </c>
+      <c r="F13" s="7">
+        <v>29168</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1938</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5255451959723111E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7071645239633542E-2</v>
+      </c>
+      <c r="K13">
+        <v>291812</v>
+      </c>
+      <c r="L13">
+        <v>1354.376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D9:D13)</f>
+        <v>660.7940000000001</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:G14" si="3">AVERAGE(E9:E13)</f>
+        <v>5144.4960000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>29266.753199999999</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>4198.433</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5138146489099967E-4</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7129444183567943E-2</v>
+      </c>
+      <c r="K14">
+        <v>291848</v>
+      </c>
+      <c r="L14">
+        <v>10255.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6471</v>
+      </c>
+      <c r="E15" s="7">
+        <v>19238</v>
+      </c>
+      <c r="F15" s="7">
+        <v>291848</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1354.376</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4409959220417534E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17081478057791313</v>
+      </c>
+      <c r="K15">
+        <v>292068</v>
+      </c>
+      <c r="L15">
+        <v>1696.451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6471</v>
+      </c>
+      <c r="E16" s="7">
+        <v>12716.839</v>
+      </c>
+      <c r="F16" s="7">
+        <v>292068</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10255.32</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4409959220417534E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17094354367283632</v>
+      </c>
+      <c r="K16">
+        <v>292278</v>
+      </c>
+      <c r="L16">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6483</v>
+      </c>
+      <c r="E17" s="7">
+        <v>19816</v>
+      </c>
+      <c r="F17" s="7">
+        <v>292278</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1696.451</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4473769993195315E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17106645389980843</v>
+      </c>
+      <c r="K17">
+        <v>291776</v>
+      </c>
+      <c r="L17">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6455</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10683.591</v>
+      </c>
+      <c r="F18" s="7">
+        <v>291776</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5915</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4324878190047162E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17077263992866554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6460</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15417</v>
+      </c>
+      <c r="F19" s="7">
+        <v>107085.969</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2065</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4351466012037903E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>6.267600359676341E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D15:D19)</f>
+        <v>6468</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:G20" si="4">AVERAGE(E15:E19)</f>
+        <v>15574.285999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>255011.19380000001</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>4257.2294000000002</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4394006527223089E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14925468433519737</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>104</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7567</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1115</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8108</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3">
+        <v>1115</v>
+      </c>
+      <c r="K3">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>105.143</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2096</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1085</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2052</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4">
+        <v>1085</v>
+      </c>
+      <c r="K4">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>101.91</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5373</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1125</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5379</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5">
+        <v>1125</v>
+      </c>
+      <c r="K5">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
+        <v>104.045</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2084.15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1242.902</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1931</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6">
+        <v>1242.902</v>
+      </c>
+      <c r="K6">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>103.143</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7016</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1120</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7086</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7">
+        <v>1120</v>
+      </c>
+      <c r="K7">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f>AVERAGE(D3:D7)</f>
+        <v>103.6482</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:G8" si="0">AVERAGE(E3:E7)</f>
+        <v>4827.2300000000005</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>1137.5804000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>4911.2</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8/SUM($D$8:$F$20)*1</f>
+        <v>1.2019456734503747E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/SUM($F$8:$F$20)</f>
+        <v>1.6070726846444876E-3</v>
+      </c>
+      <c r="J8">
+        <v>10859.516</v>
+      </c>
+      <c r="K8">
+        <v>3011.578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>658</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2368</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10859.516</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3011.578</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H20" si="1">D9/SUM($D$8:$F$20)*1</f>
+        <v>7.6304292127634299E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I20" si="2">F9/SUM($F$8:$F$20)</f>
+        <v>1.5341360955286997E-2</v>
+      </c>
+      <c r="J9">
+        <v>10814</v>
+      </c>
+      <c r="K9">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>613</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2702</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10814</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6014</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1085913486686658E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5277059987799971E-2</v>
+      </c>
+      <c r="J10">
+        <v>10697.892</v>
+      </c>
+      <c r="K10">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>661</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8268</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10697.892</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1936</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>7.6652184037030811E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5113032904291234E-2</v>
+      </c>
+      <c r="J11">
+        <v>10683</v>
+      </c>
+      <c r="K11">
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>660</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2687</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10683</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8606</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>7.653622006723197E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5091994807625957E-2</v>
+      </c>
+      <c r="J12">
+        <v>10838.087</v>
+      </c>
+      <c r="K12">
+        <v>1884.586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>661</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11496</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10838.087</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1884.586</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>7.6652184037030811E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5311087964859907E-2</v>
+      </c>
+      <c r="J13">
+        <v>107034.406</v>
+      </c>
+      <c r="K13">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D9:D13)</f>
+        <v>650.6</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:G14" si="3">AVERAGE(E9:E13)</f>
+        <v>5504.2</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>10778.499</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>4290.4328000000005</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5446158751122912E-4</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5226907323972813E-2</v>
+      </c>
+      <c r="J14">
+        <v>107114.523</v>
+      </c>
+      <c r="K14">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6466</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9913</v>
+      </c>
+      <c r="F15" s="7">
+        <v>107034.406</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10735</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4982302871927564E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15120871474205078</v>
+      </c>
+      <c r="J15">
+        <v>106957.5</v>
+      </c>
+      <c r="K15">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6462</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10682</v>
+      </c>
+      <c r="F16" s="7">
+        <v>107114.523</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7647</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4935917284008032E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15132189693319584</v>
+      </c>
+      <c r="J16">
+        <v>106889.836</v>
+      </c>
+      <c r="K16">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6465</v>
+      </c>
+      <c r="E17" s="7">
+        <v>14988</v>
+      </c>
+      <c r="F17" s="7">
+        <v>106957.5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1947</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4970706474947676E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15110006876688695</v>
+      </c>
+      <c r="J17">
+        <v>107045.516</v>
+      </c>
+      <c r="K17">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6475</v>
+      </c>
+      <c r="E18" s="7">
+        <v>15221.56</v>
+      </c>
+      <c r="F18" s="7">
+        <v>106889.836</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2062</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5086670444746515E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15100447906954881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6463</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10713.125</v>
+      </c>
+      <c r="F19" s="7">
+        <v>107045.516</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7584</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>7.494751368098791E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15122440996458311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D15:D19)</f>
+        <v>6466.2</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:G20" si="4">AVERAGE(E15:E19)</f>
+        <v>12303.537</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>107008.35619999999</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>5995</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4984622151323538E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15117191389525308</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>102.992</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9602</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2944</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8141</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3">
+        <v>2944</v>
+      </c>
+      <c r="K3">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>93</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1984.105</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2907</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1924</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4">
+        <v>2907</v>
+      </c>
+      <c r="K4">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7235.607</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2949</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5218</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5">
+        <v>2949</v>
+      </c>
+      <c r="K5">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
+        <v>104</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2081</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2950</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1929.518</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6">
+        <v>2950</v>
+      </c>
+      <c r="K6">
+        <v>1929.518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>105.158</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8751</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2949.819</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7126.6</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7">
+        <v>2949.819</v>
+      </c>
+      <c r="K7">
+        <v>7126.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f>AVERAGE(D3:D7)</f>
+        <v>102.23</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:G8" si="0">AVERAGE(E3:E7)</f>
+        <v>5930.7424000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>2939.9638</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>4867.8236000000006</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8/SUM($D$8:$F$20)*1</f>
+        <v>4.8821718344318632E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/SUM($F$8:$F$20)</f>
+        <v>1.5236153849626153E-3</v>
+      </c>
+      <c r="J8">
+        <v>29052.143</v>
+      </c>
+      <c r="K8">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>665</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3563</v>
+      </c>
+      <c r="F9" s="7">
+        <v>29052.143</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7617</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H20" si="1">D9/SUM($D$8:$F$20)*1</f>
+        <v>3.1758234079009965E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I20" si="2">F9/SUM($F$8:$F$20)</f>
+        <v>1.5056067030802879E-2</v>
+      </c>
+      <c r="J9">
+        <v>29198</v>
+      </c>
+      <c r="K9">
+        <v>9718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>663</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6377</v>
+      </c>
+      <c r="F10" s="7">
+        <v>29198</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9718</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1662720593058057E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5131656386428445E-2</v>
+      </c>
+      <c r="J10">
+        <v>29115.33</v>
+      </c>
+      <c r="K10">
+        <v>2000.751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>661</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2834</v>
+      </c>
+      <c r="F11" s="7">
+        <v>29115.33</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2000.751</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1567207107106144E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5088813245341179E-2</v>
+      </c>
+      <c r="J11">
+        <v>29205</v>
+      </c>
+      <c r="K11">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>660</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9289.366</v>
+      </c>
+      <c r="F12" s="7">
+        <v>29205</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1947</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1519450364130193E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5135284086774531E-2</v>
+      </c>
+      <c r="J12">
+        <v>29182</v>
+      </c>
+      <c r="K12">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>635</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2650</v>
+      </c>
+      <c r="F13" s="7">
+        <v>29182</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5365</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0325531789731318E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5123364499923108E-2</v>
+      </c>
+      <c r="J13">
+        <v>291917</v>
+      </c>
+      <c r="K13">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D9:D13)</f>
+        <v>656.8</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:G14" si="3">AVERAGE(E9:E13)</f>
+        <v>4942.6732000000002</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>29150.494599999998</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>5329.5501999999997</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1366628786607135E-4</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5107037049854027E-2</v>
+      </c>
+      <c r="J14">
+        <v>291857</v>
+      </c>
+      <c r="K14">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6462</v>
+      </c>
+      <c r="E15" s="7">
+        <v>18956</v>
+      </c>
+      <c r="F15" s="7">
+        <v>291917</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1177</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0860407311062016E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15128391456116969</v>
+      </c>
+      <c r="J15">
+        <v>291974</v>
+      </c>
+      <c r="K15">
+        <v>4090.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6466</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15379.875</v>
+      </c>
+      <c r="F16" s="7">
+        <v>291857</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2064</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0879510008252394E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15125281998677467</v>
+      </c>
+      <c r="J16">
+        <v>292022.125</v>
+      </c>
+      <c r="K16">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6463</v>
+      </c>
+      <c r="E17" s="7">
+        <v>10684</v>
+      </c>
+      <c r="F17" s="7">
+        <v>291974</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4090.51</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>3.086518298535961E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15131345440684496</v>
+      </c>
+      <c r="J17">
+        <v>292025</v>
+      </c>
+      <c r="K17">
+        <v>1939.308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6469</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10708</v>
+      </c>
+      <c r="F18" s="7">
+        <v>292022.125</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6196</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0893837031145182E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15133839484672429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6465</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15879</v>
+      </c>
+      <c r="F19" s="7">
+        <v>292025</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1939.308</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>3.08747343339548E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15133988479508073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D15:D19)</f>
+        <v>6465</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:G20" si="4">AVERAGE(E15:E19)</f>
+        <v>14321.375</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>291959.02500000002</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>3093.3635999999997</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>3.08747343339548E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15130569371931887</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>104.316</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1627</v>
+      </c>
+      <c r="F3" s="10">
+        <v>189.203</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1360</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3">
+        <v>189.203</v>
+      </c>
+      <c r="K3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>93</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2035.999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>162.511</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1856</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4">
+        <v>162.511</v>
+      </c>
+      <c r="K4">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>104.902</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6995</v>
+      </c>
+      <c r="F5" s="7">
+        <v>190</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7596</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5">
+        <v>190</v>
+      </c>
+      <c r="K5">
+        <v>7596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1912.616</v>
+      </c>
+      <c r="F6" s="7">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1830.481</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6">
+        <v>189</v>
+      </c>
+      <c r="K6">
+        <v>1830.481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>104</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9965</v>
+      </c>
+      <c r="F7" s="7">
+        <v>188.21</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1932.15</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7">
+        <v>188.21</v>
+      </c>
+      <c r="K7">
+        <v>1932.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <f>AVERAGE(D3:D7)</f>
+        <v>99.843600000000009</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:G8" si="0">AVERAGE(E3:E7)</f>
+        <v>4507.1229999999996</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>183.78479999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>2914.9261999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8/SUM($D$8:$F$20)*1</f>
+        <v>4.0642094619853234E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/SUM($F$8:$F$20)</f>
+        <v>1.9657364716902962E-3</v>
+      </c>
+      <c r="J8">
+        <v>1443</v>
+      </c>
+      <c r="K8">
+        <v>1299.097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>666.827</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2112.165</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1443</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1299.097</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H20" si="1">D9/SUM($D$8:$F$20)*1</f>
+        <v>2.7143698773955337E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I20" si="2">F9/SUM($F$8:$F$20)</f>
+        <v>1.5434125828953742E-2</v>
+      </c>
+      <c r="J9">
+        <v>1273</v>
+      </c>
+      <c r="K9">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>643.173</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2625</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1273</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2030</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6180844764145989E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.361582964674852E-2</v>
+      </c>
+      <c r="J10">
+        <v>1449</v>
+      </c>
+      <c r="K10">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>665</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8665.11</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1449</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6522</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7069329353310977E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5498300988325692E-2</v>
+      </c>
+      <c r="J11">
+        <v>1449</v>
+      </c>
+      <c r="K11">
+        <v>6478.058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>666</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7944</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1449</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6478.058</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.711003511173701E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5498300988325692E-2</v>
+      </c>
+      <c r="J12">
+        <v>1542</v>
+      </c>
+      <c r="K12">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>626</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2761</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1542</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1933</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5481804774695749E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6493015958590901E-2</v>
+      </c>
+      <c r="J13">
+        <v>14312.974</v>
+      </c>
+      <c r="K13">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D9:D13)</f>
+        <v>653.4</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:G14" si="3">AVERAGE(E9:E13)</f>
+        <v>4821.4549999999999</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>1431.2</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>3652.4309999999996</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6597142555569013E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.530791468218891E-2</v>
+      </c>
+      <c r="J14">
+        <v>13959</v>
+      </c>
+      <c r="K14">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6466</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9970.268</v>
+      </c>
+      <c r="F15" s="7">
+        <v>14312.974</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1308</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6320343398271998E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15308956458942713</v>
+      </c>
+      <c r="J15">
+        <v>14226</v>
+      </c>
+      <c r="K15">
+        <v>1892.345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6499</v>
+      </c>
+      <c r="E16" s="7">
+        <v>17617</v>
+      </c>
+      <c r="F16" s="7">
+        <v>13959</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2069</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6454672401077902E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14930350827883943</v>
+      </c>
+      <c r="J16">
+        <v>13965.108</v>
+      </c>
+      <c r="K16">
+        <v>1938.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6469.848</v>
+      </c>
+      <c r="E17" s="7">
+        <v>10519.802</v>
+      </c>
+      <c r="F17" s="7">
+        <v>14226</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1892.345</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6336006974114333E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15215930287089116</v>
+      </c>
+      <c r="J17">
+        <v>14139.53</v>
+      </c>
+      <c r="K17">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6494.84</v>
+      </c>
+      <c r="E18" s="7">
+        <v>14391.47</v>
+      </c>
+      <c r="F18" s="7">
+        <v>13965.108</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1938.375</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6437738805572673E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14936883859108008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6500</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10667.832</v>
+      </c>
+      <c r="F19" s="7">
+        <v>14139.53</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1928</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6458742976920503E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15123443186574242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D15:D19)</f>
+        <v>6485.9375999999993</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:G20" si="4">AVERAGE(E15:E19)</f>
+        <v>12633.2744</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>14120.522400000002</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>1827.1440000000002</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6401500911191478E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15103112923919607</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>